--- a/tut05/output/0501CS25.xlsx
+++ b/tut05/output/0501CS25.xlsx
@@ -550,25 +550,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.26530612244898</v>
+        <v>8.27</v>
       </c>
       <c r="C6" t="n">
-        <v>8.522727272727273</v>
+        <v>8.52</v>
       </c>
       <c r="D6" t="n">
-        <v>8.44186046511628</v>
+        <v>8.44</v>
       </c>
       <c r="E6" t="n">
-        <v>8.617021276595745</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>8.880952380952381</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="G6" t="n">
         <v>9.449999999999999</v>
       </c>
       <c r="H6" t="n">
-        <v>9.536585365853659</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="I6" t="n">
         <v>9.550000000000001</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.26530612244898</v>
+        <v>8.27</v>
       </c>
       <c r="C8" t="n">
-        <v>8.387096774193548</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>8.404411764705882</v>
+        <v>8.4</v>
       </c>
       <c r="E8" t="n">
-        <v>8.459016393442623</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>8.537777777777778</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="G8" t="n">
-        <v>8.675471698113208</v>
+        <v>8.68</v>
       </c>
       <c r="H8" t="n">
-        <v>8.790849673202615</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>8.878612716763005</v>
+        <v>8.880000000000001</v>
       </c>
     </row>
   </sheetData>
